--- a/data/training-courses.xlsx
+++ b/data/training-courses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\coding\python project\Search\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\coding\python project\SearchV4\Semantic-SearchV4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29A3727-B1EE-4248-8AF1-71F151EBAB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F502A6EF-8E53-4B66-978F-73F5D1C7B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3853,8 +3853,8 @@
   </sheetPr>
   <dimension ref="A1:AA1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
